--- a/Tableros/FormularioWeb.xlsx
+++ b/Tableros/FormularioWeb.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\unal\Computacion grafica\Projecto cajas\Modelado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Computacion Grafica\main\Tableros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFEF5C9-6C6F-4619-9F2F-B2013A7E8D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA8774-4209-48B4-8951-3BD2A06F62C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1665" windowWidth="15375" windowHeight="7875" xr2:uid="{E650AC30-F1B3-4EA1-82A1-D13479F8B93B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E650AC30-F1B3-4EA1-82A1-D13479F8B93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -102,8 +105,44 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DAQ"/>
+      <sheetName val="TANQUES"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="14">
+          <cell r="H14">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,42 +441,46 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>15</v>
+        <f>[1]DAQ!$H$14</f>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
+        <f>[1]DAQ!$H$15</f>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8</v>
+        <f>[1]DAQ!$H$16</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <f>[1]DAQ!$H$17</f>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>

--- a/Tableros/FormularioWeb.xlsx
+++ b/Tableros/FormularioWeb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Computacion Grafica\main\Tableros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA8774-4209-48B4-8951-3BD2A06F62C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC1CC1-5812-4B28-B550-5386C175DD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E650AC30-F1B3-4EA1-82A1-D13479F8B93B}"/>
   </bookViews>
@@ -116,22 +116,22 @@
       <sheetData sheetId="0">
         <row r="14">
           <cell r="H14">
-            <v>3</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="15">
           <cell r="H15">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="16">
           <cell r="H16">
-            <v>2</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="17">
           <cell r="H17">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
       </sheetData>
@@ -453,7 +453,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>[1]DAQ!$H$14</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -462,7 +462,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>[1]DAQ!$H$15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -471,7 +471,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>[1]DAQ!$H$16</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -480,7 +480,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>[1]DAQ!$H$17</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
